--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
-    <sheet name="Business Organizations" sheetId="2" r:id="rId2"/>
-    <sheet name="Community Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Business" sheetId="2" r:id="rId2"/>
+    <sheet name="NRV" sheetId="3" r:id="rId3"/>
     <sheet name="VT Outlets" sheetId="5" r:id="rId4"/>
     <sheet name="Media" sheetId="6" r:id="rId5"/>
     <sheet name="Other" sheetId="4" r:id="rId6"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Organization Name</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>BGSO</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Computer Science Dept.</t>
+  </si>
+  <si>
+    <t>CS Student Group</t>
+  </si>
+  <si>
+    <t>Pamplin Dept.</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,16 +624,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,71 +686,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +754,21 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -747,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -810,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Organization Name</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Pamplin Dept.</t>
+  </si>
+  <si>
+    <t>Blacksburg Facebook Group</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +770,11 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Organization Name</t>
   </si>
@@ -85,10 +85,139 @@
     <t>CS Student Group</t>
   </si>
   <si>
-    <t>Pamplin Dept.</t>
-  </si>
-  <si>
-    <t>Blacksburg Facebook Group</t>
+    <t>GFURR Acct?</t>
+  </si>
+  <si>
+    <t>Pamplin College of Business</t>
+  </si>
+  <si>
+    <t>Simone/David</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Co-Sponsorship</t>
+  </si>
+  <si>
+    <t>Everything Blacksburg Facebook Group</t>
+  </si>
+  <si>
+    <t>VT Reddit Forum</t>
+  </si>
+  <si>
+    <t>Real Estate Department</t>
+  </si>
+  <si>
+    <t>VT Foundation</t>
+  </si>
+  <si>
+    <t>Lucas' Dad</t>
+  </si>
+  <si>
+    <t>Science and Technology Studies</t>
+  </si>
+  <si>
+    <t>Data Analytics Group</t>
+  </si>
+  <si>
+    <t>Urban Computing Group</t>
+  </si>
+  <si>
+    <t>Political Science Department</t>
+  </si>
+  <si>
+    <t>ASPECT Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGG </t>
+  </si>
+  <si>
+    <t>SEEDS</t>
+  </si>
+  <si>
+    <t>COINS</t>
+  </si>
+  <si>
+    <t>BASES</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Department of Economics</t>
+  </si>
+  <si>
+    <t>Department of Finance</t>
+  </si>
+  <si>
+    <t>College of Engineering</t>
+  </si>
+  <si>
+    <t>Biocomplexity Institute</t>
+  </si>
+  <si>
+    <t>SDAL - NOVA</t>
+  </si>
+  <si>
+    <t>WVTF - Community Calendar</t>
+  </si>
+  <si>
+    <t>wvtf.org/community-calendar/events/create</t>
+  </si>
+  <si>
+    <t>dseidel@vt.edu</t>
+  </si>
+  <si>
+    <t>WVTF - State and Regional News/Economics</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>David Seidel</t>
+  </si>
+  <si>
+    <t>News Director</t>
+  </si>
+  <si>
+    <t>https://www.wuvt.vt.edu/public-relations</t>
+  </si>
+  <si>
+    <t>WUVT</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Need PSA - 4 Weeks Prior to the Event</t>
+  </si>
+  <si>
+    <t>WVRU</t>
+  </si>
+  <si>
+    <t>Ashlee Claud</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>aclaud@radford.edu</t>
+  </si>
+  <si>
+    <t>540-731-6074</t>
+  </si>
+  <si>
+    <t>WFNR - (Talk Radio)</t>
+  </si>
+  <si>
+    <t>WJLS - AM</t>
+  </si>
+  <si>
+    <t>http://wjlsam.com/contact/</t>
+  </si>
+  <si>
+    <t>Charlotte Observer</t>
   </si>
 </sst>
 </file>
@@ -208,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +358,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +652,10 @@
     <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -553,8 +683,11 @@
       <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -564,6 +697,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -632,10 +766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +779,10 @@
     <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="9" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -673,8 +807,11 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -683,6 +820,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,10 +829,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,10 +842,10 @@
     <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -732,8 +870,14 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -746,35 +890,131 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -784,23 +1024,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="2" customWidth="1"/>
     <col min="2" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="2" customWidth="1"/>
+    <col min="8" max="12" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -808,49 +1049,140 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="K1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5407316000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,10 +1192,10 @@
     <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="9" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -888,8 +1220,11 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -898,6 +1233,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>Organization Name</t>
   </si>
@@ -218,6 +218,330 @@
   </si>
   <si>
     <t>Charlotte Observer</t>
+  </si>
+  <si>
+    <t>News Desk</t>
+  </si>
+  <si>
+    <t>assignmentdesk@wbtv.com</t>
+  </si>
+  <si>
+    <t>WBTV</t>
+  </si>
+  <si>
+    <t>WTVI</t>
+  </si>
+  <si>
+    <t>Jeffrey Rivenbark</t>
+  </si>
+  <si>
+    <t>Executive Producer</t>
+  </si>
+  <si>
+    <t>jeffrey.rivernbark@cpcc.edu</t>
+  </si>
+  <si>
+    <t>WSOC</t>
+  </si>
+  <si>
+    <t>assignment@wsoc-tv.com</t>
+  </si>
+  <si>
+    <t>WCCB</t>
+  </si>
+  <si>
+    <t>newsdesk@wccbcharlotte.com</t>
+  </si>
+  <si>
+    <t>WCNC</t>
+  </si>
+  <si>
+    <t>assignmentdesk@wcnc.com</t>
+  </si>
+  <si>
+    <t>WJZY</t>
+  </si>
+  <si>
+    <t>newstips@myfoxcarolinas.com</t>
+  </si>
+  <si>
+    <t>Time Warner Cable News</t>
+  </si>
+  <si>
+    <t>cltnews@twcnews.com</t>
+  </si>
+  <si>
+    <t>localnews@charlotteobserver.com</t>
+  </si>
+  <si>
+    <t>Charlotte Post</t>
+  </si>
+  <si>
+    <t>Herb White</t>
+  </si>
+  <si>
+    <t>herb.white@thecharlottepost.com</t>
+  </si>
+  <si>
+    <t>WLOS-Asheville</t>
+  </si>
+  <si>
+    <t>http://www.wsge.org/contact-us/psa-submission-form/</t>
+  </si>
+  <si>
+    <t>Walker.Randy@Gaston.edu.</t>
+  </si>
+  <si>
+    <t>WLOS-Asheville - Sunday Roundtable</t>
+  </si>
+  <si>
+    <t>WFDD - Winston Salem</t>
+  </si>
+  <si>
+    <t>Emily McCord</t>
+  </si>
+  <si>
+    <t>mccordea@wfu.edu</t>
+  </si>
+  <si>
+    <t>WFAE - 90.7 Charlotte Talks</t>
+  </si>
+  <si>
+    <t>charlottetalks@wfae.org</t>
+  </si>
+  <si>
+    <t>WFAE - 90.7 News Ideas</t>
+  </si>
+  <si>
+    <t>news@wfae.org</t>
+  </si>
+  <si>
+    <t>WBT</t>
+  </si>
+  <si>
+    <t>http://www.wbt.com/contact-us</t>
+  </si>
+  <si>
+    <t>WNCW - Asheville</t>
+  </si>
+  <si>
+    <t>Cathy Walker</t>
+  </si>
+  <si>
+    <t>Business and Traffic Coordinator</t>
+  </si>
+  <si>
+    <t>cathy@wncw.org</t>
+  </si>
+  <si>
+    <t>WSPC</t>
+  </si>
+  <si>
+    <t>Leon Warren</t>
+  </si>
+  <si>
+    <t>News Director/Morning Show Host</t>
+  </si>
+  <si>
+    <t>leonradio@hotmail.com</t>
+  </si>
+  <si>
+    <t>WVPublic Braodcasting</t>
+  </si>
+  <si>
+    <t>Jesse Wright</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>jwright2@wvpublic.org</t>
+  </si>
+  <si>
+    <t>Charleston Gazette-Mail</t>
+  </si>
+  <si>
+    <t>Max Garland</t>
+  </si>
+  <si>
+    <t>Business Reporter</t>
+  </si>
+  <si>
+    <t>max.garland@wvgazette.com</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Greg Moore</t>
+  </si>
+  <si>
+    <t>Managing Editor</t>
+  </si>
+  <si>
+    <t>gmoore@wvgazettemail.com</t>
+  </si>
+  <si>
+    <t>The State Journal - Charlotte, WV</t>
+  </si>
+  <si>
+    <t>Josh Bergeron</t>
+  </si>
+  <si>
+    <t>josh.bergeron@state-journal.com</t>
+  </si>
+  <si>
+    <t>WKAZ Business Radio</t>
+  </si>
+  <si>
+    <t>http://wchsnetwork.com/contact/#</t>
+  </si>
+  <si>
+    <t>Dominion Post</t>
+  </si>
+  <si>
+    <t>Kathy Plum</t>
+  </si>
+  <si>
+    <t>Regional News Director</t>
+  </si>
+  <si>
+    <t>kingwood@dominionpost.com</t>
+  </si>
+  <si>
+    <t>The DA - WVU University</t>
+  </si>
+  <si>
+    <t>DANewsRoom@mail.wvu.edu</t>
+  </si>
+  <si>
+    <t>The Parkersburg Sentinel</t>
+  </si>
+  <si>
+    <t>http://www.newsandsentinel.com/submit-news/</t>
+  </si>
+  <si>
+    <t>Fred pace</t>
+  </si>
+  <si>
+    <t>fpace@herald-dispatch.com</t>
+  </si>
+  <si>
+    <t>The Herald-Dispatch</t>
+  </si>
+  <si>
+    <t>The Parthenon - Marshall University</t>
+  </si>
+  <si>
+    <t>Breanna Francis</t>
+  </si>
+  <si>
+    <t>News Editor</t>
+  </si>
+  <si>
+    <t>francis70@marshall.edu</t>
+  </si>
+  <si>
+    <t>The Picket - Shepard University</t>
+  </si>
+  <si>
+    <t>http://supicket.com/contact/</t>
+  </si>
+  <si>
+    <t>The Sherpardstown Chronicle</t>
+  </si>
+  <si>
+    <t>Vanessa McGuigan</t>
+  </si>
+  <si>
+    <t>Editorial Assistant</t>
+  </si>
+  <si>
+    <t>vmcguigan@shepardstownchronicle.com</t>
+  </si>
+  <si>
+    <t>The Intelligencer</t>
+  </si>
+  <si>
+    <t>http://www.theintelligencer.net/submit-news/</t>
+  </si>
+  <si>
+    <t>JW Johnson, Jr.</t>
+  </si>
+  <si>
+    <t>jwjohnson@theintelligencer.net</t>
+  </si>
+  <si>
+    <t>The Collegian - Urichmond</t>
+  </si>
+  <si>
+    <t>collegianstories@gmail.com</t>
+  </si>
+  <si>
+    <t>Richmond Times-Dispatch</t>
+  </si>
+  <si>
+    <t>https://www.richmond.com/contact-us/forms/news-opinion-submissions/</t>
+  </si>
+  <si>
+    <t>WCVE WHTJ WCVW WCVE</t>
+  </si>
+  <si>
+    <t>http://ideastations.org/contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDCE U Richmond </t>
+  </si>
+  <si>
+    <t>promotions.wdce@richmond.edu</t>
+  </si>
+  <si>
+    <t>Hampton University</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Norfolk State University</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Virginia State University</t>
+  </si>
+  <si>
+    <t>Virginia Union University</t>
+  </si>
+  <si>
+    <t>West Virginia State University</t>
+  </si>
+  <si>
+    <t>Bluefield State College</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>http://biz.hamptonu.edu/contact/</t>
+  </si>
+  <si>
+    <t>Dr. Ziette Hayes</t>
+  </si>
+  <si>
+    <t>ziette.hayes@hamptonu.edu</t>
+  </si>
+  <si>
+    <t>Dean, School of Business</t>
+  </si>
+  <si>
+    <t>Dr. Joyce Shirazi</t>
+  </si>
+  <si>
+    <t>Dean, School of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>joyce.shirazi@hamptonu.edu</t>
   </si>
 </sst>
 </file>
@@ -227,7 +551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +567,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +584,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -333,11 +665,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,8 +703,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,23 +987,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="32.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
-    <col min="7" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -666,42 +1014,159 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:ziette.hayes@hamptonu.edu"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:joyce.shirazi@hamptonu.edu"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1024,10 +1489,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -1168,12 +1634,412 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7043722442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E17" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3367582178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="E15" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="E17" r:id="rId8"/>
+    <hyperlink ref="E18" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId10" tooltip="Email Randy Walker" display="mailto:Walker.Randy@Gaston.edu"/>
+    <hyperlink ref="E21" r:id="rId11"/>
+    <hyperlink ref="E22" r:id="rId12" display="mailto:charlottetalks@wfae.org?subject=Charlotte%20Talks"/>
+    <hyperlink ref="E23" r:id="rId13"/>
+    <hyperlink ref="E26" r:id="rId14"/>
+    <hyperlink ref="E28" r:id="rId15"/>
+    <hyperlink ref="E29" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="E35" r:id="rId18"/>
+    <hyperlink ref="E36" r:id="rId19"/>
+    <hyperlink ref="E38" r:id="rId20"/>
+    <hyperlink ref="E39" r:id="rId21"/>
+    <hyperlink ref="E40" r:id="rId22" display="mailto:collegianstories@gmail.com"/>
+    <hyperlink ref="E43" r:id="rId23" display="mailto:promotions.wdce@richmond.edu"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davon\Documents\GitHub\blockchain-blacksburg\Marketing and Media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\OneDrive\Documenti\VT-PGG-GlobalForum\GFURR-Events\GlobalForumSymposium\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="90BF4895A3ED447D3A38C0CD3F6429E2A223F4CC" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{5C9A38EB-0E4A-4F71-8C37-81E7FF25B67A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26208" windowHeight="8058" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>Organization Name</t>
   </si>
@@ -89,16 +90,307 @@
   </si>
   <si>
     <t>Blacksburg Facebook Group</t>
+  </si>
+  <si>
+    <t>Carolina Fintech Hub</t>
+  </si>
+  <si>
+    <t>Tariq Bokhari, spokesman</t>
+  </si>
+  <si>
+    <t>Kristopher Kovacs, CEO</t>
+  </si>
+  <si>
+    <t>Constellation Digital Partners, LLC</t>
+  </si>
+  <si>
+    <t>Hayden Technology, Inc</t>
+  </si>
+  <si>
+    <t>Mark Woollen, President</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Radford Alumnus</t>
+  </si>
+  <si>
+    <t>@FinTechInnov8r'</t>
+  </si>
+  <si>
+    <t>@CarolinaFintech'</t>
+  </si>
+  <si>
+    <t>Queen City Fintech</t>
+  </si>
+  <si>
+    <t>Daniel Roselli, Founder</t>
+  </si>
+  <si>
+    <t>ajackson@qcfintech.co</t>
+  </si>
+  <si>
+    <t>Aggressant, Inc</t>
+  </si>
+  <si>
+    <t>Thomas Gathings, Co-Founder</t>
+  </si>
+  <si>
+    <t>digitze.ai</t>
+  </si>
+  <si>
+    <t>704-769-0791</t>
+  </si>
+  <si>
+    <t>info@digitze.ai</t>
+  </si>
+  <si>
+    <t>Justin Adams, Co-Founder</t>
+  </si>
+  <si>
+    <t>919.502.0677</t>
+  </si>
+  <si>
+    <t>https://www.constellation.coop/contact-us/</t>
+  </si>
+  <si>
+    <t>(704) 246-8090</t>
+  </si>
+  <si>
+    <t>Medici - Enabling Fintech at Scale</t>
+  </si>
+  <si>
+    <t>info@gomedici.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/carolina-fintech-hub/</t>
+  </si>
+  <si>
+    <t>HoneyFi.com</t>
+  </si>
+  <si>
+    <t>Ramy Serageldin</t>
+  </si>
+  <si>
+    <t>BB &amp; T</t>
+  </si>
+  <si>
+    <t>Kristin Wallace, VP Emerging Payments</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kristinhwallace/</t>
+  </si>
+  <si>
+    <t>@KMHWallace'</t>
+  </si>
+  <si>
+    <t>@honeyfiapp'</t>
+  </si>
+  <si>
+    <t>@sirrams'</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/theramy</t>
+  </si>
+  <si>
+    <t>Patrick Rivenbark, VP Strategic Partn</t>
+  </si>
+  <si>
+    <t>patrick@letstalkpayments.com</t>
+  </si>
+  <si>
+    <t>Moven</t>
+  </si>
+  <si>
+    <t>Brett King, Founder</t>
+  </si>
+  <si>
+    <t>Brett@moven.com</t>
+  </si>
+  <si>
+    <t>Marek Forysiak, CEO</t>
+  </si>
+  <si>
+    <t>arek.forysiak@moven.com</t>
+  </si>
+  <si>
+    <t>inquiry@moven.com</t>
+  </si>
+  <si>
+    <t>@danielrosell'</t>
+  </si>
+  <si>
+    <t>http://www.qcfintech.co/contact</t>
+  </si>
+  <si>
+    <t>Finsiders</t>
+  </si>
+  <si>
+    <t>https://www.finsiders.org/contact</t>
+  </si>
+  <si>
+    <t>@finsidersCLT '</t>
+  </si>
+  <si>
+    <t>CharlotteAgenda.com</t>
+  </si>
+  <si>
+    <t>Andrew Dunn, Editor-in-Chief</t>
+  </si>
+  <si>
+    <t>andrew@charlotteagenda.com</t>
+  </si>
+  <si>
+    <t>@andrew_dunn</t>
+  </si>
+  <si>
+    <t>Research Triangle Cleantech Cluster</t>
+  </si>
+  <si>
+    <t>Susan Sanford, Ex Dir</t>
+  </si>
+  <si>
+    <t>ssanford@researchtriangle.org</t>
+  </si>
+  <si>
+    <t>919-334-4078</t>
+  </si>
+  <si>
+    <t>Emmitt Owens, Member Recruitment</t>
+  </si>
+  <si>
+    <t>eowens@researchtriangle.org</t>
+  </si>
+  <si>
+    <t>919-334-4076</t>
+  </si>
+  <si>
+    <t>Blockchain Training Alliance</t>
+  </si>
+  <si>
+    <t>train@blockchaintrainingalliance.com</t>
+  </si>
+  <si>
+    <t>PatientPay</t>
+  </si>
+  <si>
+    <t>info@patientpay.com</t>
+  </si>
+  <si>
+    <t>888.730.9374</t>
+  </si>
+  <si>
+    <t>Thomas Furr, CEO Founder</t>
+  </si>
+  <si>
+    <t>Center for Design Innovation</t>
+  </si>
+  <si>
+    <t>info@cdiunc.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rick Leander, Co-Founder </t>
+  </si>
+  <si>
+    <t>Michele Wille, Co-Founder</t>
+  </si>
+  <si>
+    <t>understood connections</t>
+  </si>
+  <si>
+    <t>https://understoodconnections.com/contact/</t>
+  </si>
+  <si>
+    <t>209.803.8787</t>
+  </si>
+  <si>
+    <t>rick@understoodconnections.com</t>
+  </si>
+  <si>
+    <t>michele@understoodconnections.com</t>
+  </si>
+  <si>
+    <t>David Ranii</t>
+  </si>
+  <si>
+    <t>@dranii'</t>
+  </si>
+  <si>
+    <t>dranii@newsobserver.com</t>
+  </si>
+  <si>
+    <t>The News &amp; Observer</t>
+  </si>
+  <si>
+    <t>Spreedly</t>
+  </si>
+  <si>
+    <t>(888) 727-7750</t>
+  </si>
+  <si>
+    <t>https://www.spreedly.com/contact-us</t>
+  </si>
+  <si>
+    <t>Vertical IQ</t>
+  </si>
+  <si>
+    <t>info@verticaliq.com</t>
+  </si>
+  <si>
+    <t>919-787-4600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockchain Leadership Council </t>
+  </si>
+  <si>
+    <t>cameron@ngoxchange.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO Xchange </t>
+  </si>
+  <si>
+    <t>Cameron R. Nelson</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/groups/8635634/profile</t>
+  </si>
+  <si>
+    <t>The Korea-US Innovation and Entrepreneur Center - The Blockchain Business Center (BBC)</t>
+  </si>
+  <si>
+    <t>info@kouse.org</t>
+  </si>
+  <si>
+    <t>571-565-3924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-565-3923 </t>
+  </si>
+  <si>
+    <t>https://kouse.org/resources/cryptocurrency-business-center/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny E. Cieplak, https://m.crowell.com/NewsEvents/Publications/speeches-presentations/Blockchain-Use-Case-Preparing-for-the-Blockchain-Revolution-Tysons-Corner-VA/?dev=m </t>
+  </si>
+  <si>
+    <t>jcieplak@crowell.com</t>
+  </si>
+  <si>
+    <t>202-624-2542</t>
+  </si>
+  <si>
+    <t>Crowell Moring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +402,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,10 +505,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,8 +530,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,24 +818,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="32.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="32.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.26171875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.83984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.15625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.41796875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -554,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -572,24 +882,608 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="46.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.15625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.41796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.41796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.41796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1" display="https://twitter.com/KMHWallace" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.26171875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.15625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.41796875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="13.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -615,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -630,27 +1524,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.26171875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.15625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.41796875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="13.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -674,9 +1568,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
@@ -684,95 +1582,32 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -783,24 +1618,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.41796875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="22.26171875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.83984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.15625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.41796875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -829,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -846,24 +1681,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.26171875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.15625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.41796875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="13.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -889,7 +1724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>

--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="259">
   <si>
     <t>Organization Name</t>
   </si>
@@ -511,9 +511,6 @@
     <t>Virginia State University</t>
   </si>
   <si>
-    <t>Virginia Union University</t>
-  </si>
-  <si>
     <t>West Virginia State University</t>
   </si>
   <si>
@@ -542,6 +539,273 @@
   </si>
   <si>
     <t>joyce.shirazi@hamptonu.edu</t>
+  </si>
+  <si>
+    <t>Sylvia Brooks</t>
+  </si>
+  <si>
+    <t>Academic Advisor</t>
+  </si>
+  <si>
+    <t>sbrooks@nsu.edu</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>engr@nsu.edu</t>
+  </si>
+  <si>
+    <t>Dr. Ade Ola</t>
+  </si>
+  <si>
+    <t>Chairperson</t>
+  </si>
+  <si>
+    <t>aola@vsu.edu</t>
+  </si>
+  <si>
+    <t>Dr. Keith Williamson</t>
+  </si>
+  <si>
+    <t>Dean, Engineering, Science and Technology</t>
+  </si>
+  <si>
+    <t>kwilliamson@vsu.edu</t>
+  </si>
+  <si>
+    <t>Mr. Matthew Carroll</t>
+  </si>
+  <si>
+    <t>Interim Chair of the Department of Business Administration and Economics</t>
+  </si>
+  <si>
+    <t>mcarrol2@wvstate.edu</t>
+  </si>
+  <si>
+    <t>Dr. Naveed Zaman</t>
+  </si>
+  <si>
+    <t>Dean of the College of Natural Science and Mathematics</t>
+  </si>
+  <si>
+    <t>zamanna@wvstate.edu</t>
+  </si>
+  <si>
+    <t>John Sneed</t>
+  </si>
+  <si>
+    <t>Professor of Business and Interim Dean</t>
+  </si>
+  <si>
+    <t>jsnead@bluefieldstate.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shannon Bowling </t>
+  </si>
+  <si>
+    <t>sbowling@bluefieldstate.edu</t>
+  </si>
+  <si>
+    <t>Dean, Schoot of Engineering Technology and Computer Science</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracy Freeman </t>
+  </si>
+  <si>
+    <t>NC State Poole Col. Management</t>
+  </si>
+  <si>
+    <t>Teaching Assistant Prof.</t>
+  </si>
+  <si>
+    <t>tafreem2@ncsu.edu</t>
+  </si>
+  <si>
+    <t>919 513 4478</t>
+  </si>
+  <si>
+    <t>Anna Rzewnicki</t>
+  </si>
+  <si>
+    <t>Director of comms</t>
+  </si>
+  <si>
+    <t>anna_rzewnicki@ncsu.edu</t>
+  </si>
+  <si>
+    <t>Steve Rogers</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Vice president</t>
+  </si>
+  <si>
+    <t>Spoke at NCSU blockchain event; info:http://c.ymcdn.com/sites/www.strategic-alliances.org/resource/resmgr/bios/rogers_stephen.pdf</t>
+  </si>
+  <si>
+    <t>Carolina Fintech Hub</t>
+  </si>
+  <si>
+    <t>http://www.carolinafintechhub.org/</t>
+  </si>
+  <si>
+    <t>Not easy to find contact info, but linkedin and twitter. Should try to get our event listed on their site</t>
+  </si>
+  <si>
+    <t>Campbell R Harvey</t>
+  </si>
+  <si>
+    <t>Fuqua, Duke</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>cam.harvey@duke.edu </t>
+  </si>
+  <si>
+    <t>1 919.660.7768</t>
+  </si>
+  <si>
+    <t>https://people.duke.edu/~charvey/</t>
+  </si>
+  <si>
+    <t>Duke Blockchain Lab</t>
+  </si>
+  <si>
+    <t>Can email on their site</t>
+  </si>
+  <si>
+    <t>www.dukeblockchainlab.com</t>
+  </si>
+  <si>
+    <t>Thomas Duncan</t>
+  </si>
+  <si>
+    <t>Radford</t>
+  </si>
+  <si>
+    <t>tduncan13@radford.edu</t>
+  </si>
+  <si>
+    <t>540 831 6057</t>
+  </si>
+  <si>
+    <t>Other prof from Radford (?)</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>UVA Cryptocurrency club</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cryptosatuva/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we link our facebook account to theirs? Or "friend" them? Maybe even "like" them? There should be a "like like" button on facebook for teenagers. </t>
+  </si>
+  <si>
+    <t>Saba Eskandarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVA </t>
+  </si>
+  <si>
+    <t>Masters student</t>
+  </si>
+  <si>
+    <t>saba.eskandarian@gmail.com</t>
+  </si>
+  <si>
+    <t>Robert Parham</t>
+  </si>
+  <si>
+    <t>UVA McIntire</t>
+  </si>
+  <si>
+    <t>Asst. Prof, finance</t>
+  </si>
+  <si>
+    <t>robertp@virginia.edu</t>
+  </si>
+  <si>
+    <t>434 924 5491</t>
+  </si>
+  <si>
+    <t>Mentioned here: https://news.virginia.edu/content/qa-9-things-you-need-know-about-bitcoin</t>
+  </si>
+  <si>
+    <t>Roanoke College - dept business admin &amp; econ</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>540 375 2426</t>
+  </si>
+  <si>
+    <t>Sharon Gibbs</t>
+  </si>
+  <si>
+    <t>Roanoke College</t>
+  </si>
+  <si>
+    <t>sgibbs@roanoke.edu</t>
+  </si>
+  <si>
+    <t>Dream Poore</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>dpoore@roanoke.edu</t>
+  </si>
+  <si>
+    <t>David Giesel</t>
+  </si>
+  <si>
+    <t>Wake Forest; J. of Business &amp; IP Law</t>
+  </si>
+  <si>
+    <t>giesdn15@wfu.edu</t>
+  </si>
+  <si>
+    <t>Raina Haque</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Adjunct prof</t>
+  </si>
+  <si>
+    <t>haquer@wfu.edu</t>
+  </si>
+  <si>
+    <t>http://news.law.wfu.edu/2018/02/adjunct-professor-raina-haque-to-discuss-blockchain-technology-at-tedx-wake-forest/</t>
+  </si>
+  <si>
+    <t>Wake Fintech Club</t>
+  </si>
+  <si>
+    <t>leffka13@wfu.edu</t>
   </si>
 </sst>
 </file>
@@ -551,7 +815,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +839,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -584,7 +863,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -676,12 +955,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,7 +997,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -987,20 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="32.42578125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="10" customWidth="1"/>
+    <col min="8" max="10" width="13.42578125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1023,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
@@ -1039,134 +1359,515 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C10" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="C11" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="mailto:ziette.hayes@hamptonu.edu"/>
     <hyperlink ref="E3" r:id="rId2" display="mailto:joyce.shirazi@hamptonu.edu"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="D13" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10" display="mailto:tafreem2@ncsu.edu"/>
+    <hyperlink ref="D16" r:id="rId11" display="mailto:cam.harvey@duke.edu"/>
+    <hyperlink ref="F17" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="F20" r:id="rId14"/>
+    <hyperlink ref="D21" r:id="rId15"/>
+    <hyperlink ref="D22" r:id="rId16"/>
+    <hyperlink ref="D24" r:id="rId17"/>
+    <hyperlink ref="D25" r:id="rId18"/>
+    <hyperlink ref="D26" r:id="rId19"/>
+    <hyperlink ref="D27" r:id="rId20"/>
+    <hyperlink ref="D28" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1491,9 +2192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,6 +2371,9 @@
       <c r="E12" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1681,6 +2385,9 @@
       <c r="E13" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1692,6 +2399,9 @@
       <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="K14" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1703,6 +2413,9 @@
       <c r="E15" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="K15" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1714,6 +2427,9 @@
       <c r="E16" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="K16" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1777,6 +2493,9 @@
       <c r="E22" s="12" t="s">
         <v>92</v>
       </c>
+      <c r="K22" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1785,6 +2504,9 @@
       <c r="E23" s="11" t="s">
         <v>94</v>
       </c>
+      <c r="K23" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1900,7 +2622,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>126</v>
       </c>
@@ -1908,7 +2630,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>128</v>
       </c>
@@ -1916,7 +2638,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>132</v>
       </c>
@@ -1927,7 +2649,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>133</v>
       </c>
@@ -1941,7 +2663,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>137</v>
       </c>
@@ -1949,7 +2671,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>139</v>
       </c>
@@ -1963,7 +2685,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
@@ -1980,15 +2702,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K40" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>149</v>
       </c>
@@ -1996,7 +2721,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>151</v>
       </c>
@@ -2004,12 +2729,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>154</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
     <sheet name="Business" sheetId="2" r:id="rId2"/>
-    <sheet name="NRV" sheetId="3" r:id="rId3"/>
-    <sheet name="VT Outlets" sheetId="5" r:id="rId4"/>
+    <sheet name="VT Outlets" sheetId="5" r:id="rId3"/>
+    <sheet name="NRV" sheetId="3" r:id="rId4"/>
     <sheet name="Media" sheetId="6" r:id="rId5"/>
     <sheet name="Other" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="355">
   <si>
     <t>Organization Name</t>
   </si>
@@ -806,6 +806,294 @@
   </si>
   <si>
     <t>leffka13@wfu.edu</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Tariq Bokhari, spokesman</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/carolina-fintech-hub/</t>
+  </si>
+  <si>
+    <t>@CarolinaFintech'</t>
+  </si>
+  <si>
+    <t>@FinTechInnov8r'</t>
+  </si>
+  <si>
+    <t>Radford Alumnus</t>
+  </si>
+  <si>
+    <t>Constellation Digital Partners, LLC</t>
+  </si>
+  <si>
+    <t>Kristopher Kovacs, CEO</t>
+  </si>
+  <si>
+    <t>https://www.constellation.coop/contact-us/</t>
+  </si>
+  <si>
+    <t>919.502.0677</t>
+  </si>
+  <si>
+    <t>Hayden Technology, Inc</t>
+  </si>
+  <si>
+    <t>Mark Woollen, President</t>
+  </si>
+  <si>
+    <t>Queen City Fintech</t>
+  </si>
+  <si>
+    <t>Daniel Roselli, Founder</t>
+  </si>
+  <si>
+    <t>ajackson@qcfintech.co</t>
+  </si>
+  <si>
+    <t>@danielrosell'</t>
+  </si>
+  <si>
+    <t>http://www.qcfintech.co/contact</t>
+  </si>
+  <si>
+    <t>Finsiders</t>
+  </si>
+  <si>
+    <t>https://www.finsiders.org/contact</t>
+  </si>
+  <si>
+    <t>@finsidersCLT '</t>
+  </si>
+  <si>
+    <t>Aggressant, Inc</t>
+  </si>
+  <si>
+    <t>Thomas Gathings, Co-Founder</t>
+  </si>
+  <si>
+    <t>digitze.ai</t>
+  </si>
+  <si>
+    <t>Justin Adams, Co-Founder</t>
+  </si>
+  <si>
+    <t>info@digitze.ai</t>
+  </si>
+  <si>
+    <t>704-769-0791</t>
+  </si>
+  <si>
+    <t>Medici - Enabling Fintech at Scale</t>
+  </si>
+  <si>
+    <t>info@gomedici.com</t>
+  </si>
+  <si>
+    <t>(704) 246-8090</t>
+  </si>
+  <si>
+    <t>Patrick Rivenbark, VP Strategic Partn</t>
+  </si>
+  <si>
+    <t>patrick@letstalkpayments.com</t>
+  </si>
+  <si>
+    <t>HoneyFi.com</t>
+  </si>
+  <si>
+    <t>Ramy Serageldin</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/theramy</t>
+  </si>
+  <si>
+    <t>@honeyfiapp'</t>
+  </si>
+  <si>
+    <t>@sirrams'</t>
+  </si>
+  <si>
+    <t>BB &amp; T</t>
+  </si>
+  <si>
+    <t>Kristin Wallace, VP Emerging Payments</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kristinhwallace/</t>
+  </si>
+  <si>
+    <t>@KMHWallace'</t>
+  </si>
+  <si>
+    <t>Moven</t>
+  </si>
+  <si>
+    <t>Brett King, Founder</t>
+  </si>
+  <si>
+    <t>Brett@moven.com</t>
+  </si>
+  <si>
+    <t>Marek Forysiak, CEO</t>
+  </si>
+  <si>
+    <t>arek.forysiak@moven.com</t>
+  </si>
+  <si>
+    <t>inquiry@moven.com</t>
+  </si>
+  <si>
+    <t>CharlotteAgenda.com</t>
+  </si>
+  <si>
+    <t>Andrew Dunn, Editor-in-Chief</t>
+  </si>
+  <si>
+    <t>andrew@charlotteagenda.com</t>
+  </si>
+  <si>
+    <t>@andrew_dunn</t>
+  </si>
+  <si>
+    <t>Research Triangle Cleantech Cluster</t>
+  </si>
+  <si>
+    <t>Susan Sanford, Ex Dir</t>
+  </si>
+  <si>
+    <t>ssanford@researchtriangle.org</t>
+  </si>
+  <si>
+    <t>919-334-4078</t>
+  </si>
+  <si>
+    <t>Emmitt Owens, Member Recruitment</t>
+  </si>
+  <si>
+    <t>eowens@researchtriangle.org</t>
+  </si>
+  <si>
+    <t>919-334-4076</t>
+  </si>
+  <si>
+    <t>Blockchain Training Alliance</t>
+  </si>
+  <si>
+    <t>train@blockchaintrainingalliance.com</t>
+  </si>
+  <si>
+    <t>PatientPay</t>
+  </si>
+  <si>
+    <t>Thomas Furr, CEO Founder</t>
+  </si>
+  <si>
+    <t>info@patientpay.com</t>
+  </si>
+  <si>
+    <t>888.730.9374</t>
+  </si>
+  <si>
+    <t>Center for Design Innovation</t>
+  </si>
+  <si>
+    <t>info@cdiunc.org</t>
+  </si>
+  <si>
+    <t>understood connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rick Leander, Co-Founder </t>
+  </si>
+  <si>
+    <t>rick@understoodconnections.com</t>
+  </si>
+  <si>
+    <t>Michele Wille, Co-Founder</t>
+  </si>
+  <si>
+    <t>michele@understoodconnections.com</t>
+  </si>
+  <si>
+    <t>https://understoodconnections.com/contact/</t>
+  </si>
+  <si>
+    <t>209.803.8787</t>
+  </si>
+  <si>
+    <t>The News &amp; Observer</t>
+  </si>
+  <si>
+    <t>David Ranii</t>
+  </si>
+  <si>
+    <t>dranii@newsobserver.com</t>
+  </si>
+  <si>
+    <t>@dranii'</t>
+  </si>
+  <si>
+    <t>Spreedly</t>
+  </si>
+  <si>
+    <t>https://www.spreedly.com/contact-us</t>
+  </si>
+  <si>
+    <t>(888) 727-7750</t>
+  </si>
+  <si>
+    <t>Vertical IQ</t>
+  </si>
+  <si>
+    <t>info@verticaliq.com</t>
+  </si>
+  <si>
+    <t>919-787-4600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockchain Leadership Council </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/groups/8635634/profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO Xchange </t>
+  </si>
+  <si>
+    <t>Cameron R. Nelson</t>
+  </si>
+  <si>
+    <t>cameron@ngoxchange.com</t>
+  </si>
+  <si>
+    <t>The Korea-US Innovation and Entrepreneur Center - The Blockchain Business Center (BBC)</t>
+  </si>
+  <si>
+    <t>https://kouse.org/resources/cryptocurrency-business-center/</t>
+  </si>
+  <si>
+    <t>info@kouse.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-565-3923 </t>
+  </si>
+  <si>
+    <t>571-565-3924</t>
+  </si>
+  <si>
+    <t>Crowell Moring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny E. Cieplak, https://m.crowell.com/NewsEvents/Publications/speeches-presentations/Blockchain-Use-Case-Preparing-for-the-Blockchain-Revolution-Tysons-Corner-VA/?dev=m </t>
+  </si>
+  <si>
+    <t>jcieplak@crowell.com</t>
+  </si>
+  <si>
+    <t>202-624-2542</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1873,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,7 +2177,7 @@
     <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1914,23 +2202,585 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="I1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
+    <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1987,201 +2837,6 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Marketing and Media/BB.Outreach.List.1.18.xlsx
+++ b/Marketing and Media/BB.Outreach.List.1.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26205" windowHeight="8055" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="391">
   <si>
     <t>Organization Name</t>
   </si>
@@ -79,12 +79,6 @@
     <t>University</t>
   </si>
   <si>
-    <t>Computer Science Dept.</t>
-  </si>
-  <si>
-    <t>CS Student Group</t>
-  </si>
-  <si>
     <t>GFURR Acct?</t>
   </si>
   <si>
@@ -118,18 +112,9 @@
     <t>Science and Technology Studies</t>
   </si>
   <si>
-    <t>Data Analytics Group</t>
-  </si>
-  <si>
-    <t>Urban Computing Group</t>
-  </si>
-  <si>
     <t>Political Science Department</t>
   </si>
   <si>
-    <t>ASPECT Program</t>
-  </si>
-  <si>
     <t xml:space="preserve">PGG </t>
   </si>
   <si>
@@ -145,15 +130,6 @@
     <t>BIT</t>
   </si>
   <si>
-    <t>Department of Economics</t>
-  </si>
-  <si>
-    <t>Department of Finance</t>
-  </si>
-  <si>
-    <t>College of Engineering</t>
-  </si>
-  <si>
     <t>Biocomplexity Institute</t>
   </si>
   <si>
@@ -1094,6 +1070,138 @@
   </si>
   <si>
     <t>202-624-2542</t>
+  </si>
+  <si>
+    <t>GFURR</t>
+  </si>
+  <si>
+    <t>bgso-g@vt.edu</t>
+  </si>
+  <si>
+    <t>gsa@vt.edu</t>
+  </si>
+  <si>
+    <t>grads@vt.edu</t>
+  </si>
+  <si>
+    <t>Association for Women in Computing</t>
+  </si>
+  <si>
+    <t>awc-g@vt.edu</t>
+  </si>
+  <si>
+    <t>CS Grad Listserv</t>
+  </si>
+  <si>
+    <t>CS Undergrad Listserv</t>
+  </si>
+  <si>
+    <t>gradinfo@cs.vt.edu</t>
+  </si>
+  <si>
+    <t>csundergrad@cs.vt.edu</t>
+  </si>
+  <si>
+    <t>John Dooley</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>DAG</t>
+  </si>
+  <si>
+    <t>Nareen</t>
+  </si>
+  <si>
+    <t>SF/DB</t>
+  </si>
+  <si>
+    <t>Urban Computing Group- List</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>STS - List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aktate@vt.edu, stsinncr@vt.edu </t>
+  </si>
+  <si>
+    <t>DAG-List</t>
+  </si>
+  <si>
+    <t>DW/CS</t>
+  </si>
+  <si>
+    <t>PS List</t>
+  </si>
+  <si>
+    <t>khedge@vt.edu</t>
+  </si>
+  <si>
+    <t>krystal@vt.edu</t>
+  </si>
+  <si>
+    <t>Kim Hedge</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>bhusser@vt.edu</t>
+  </si>
+  <si>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>VCU Digital Sociology</t>
+  </si>
+  <si>
+    <t>jajohnson3@vcu.edu</t>
+  </si>
+  <si>
+    <t>Jennifer A. Johnson</t>
+  </si>
+  <si>
+    <t>tsutphin@vt.edu</t>
+  </si>
+  <si>
+    <t>ASPECT Program - List</t>
+  </si>
+  <si>
+    <t>ASPECT Dean</t>
+  </si>
+  <si>
+    <t>DB/CS</t>
+  </si>
+  <si>
+    <t>Department of Economics - Dean</t>
+  </si>
+  <si>
+    <t>Department of Economics - List</t>
+  </si>
+  <si>
+    <t>Department of Finance - Dean</t>
+  </si>
+  <si>
+    <t>Department of Finance - List</t>
+  </si>
+  <si>
+    <t>College of Engineering - Dean</t>
+  </si>
+  <si>
+    <t>College of Engineering - List</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,6 +1250,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1151,7 +1268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1256,12 +1373,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,6 +1453,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1593,991 +1747,1051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.42578125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="22.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="10" customWidth="1"/>
-    <col min="8" max="10" width="13.42578125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="3" width="32.42578125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="22.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="10" customWidth="1"/>
+    <col min="9" max="11" width="13.42578125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="E1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="L1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>155</v>
+      <c r="K2" s="13"/>
+      <c r="L2" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F6" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="L6" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F7" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="L7" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="F8" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="L8" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E9" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="F9" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="L9" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="F10" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="L10" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E11" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="22"/>
+      <c r="L11" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="E13" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="H14" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="E16" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="F16" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="H16" s="29"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="G17" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="E21" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="D22" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="E22" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D23" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D24" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="C25" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="E25" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="C27" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="E27" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="H27" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C28" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="13"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="mailto:ziette.hayes@hamptonu.edu"/>
-    <hyperlink ref="E3" r:id="rId2" display="mailto:joyce.shirazi@hamptonu.edu"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="D13" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10" display="mailto:tafreem2@ncsu.edu"/>
-    <hyperlink ref="D16" r:id="rId11" display="mailto:cam.harvey@duke.edu"/>
-    <hyperlink ref="F17" r:id="rId12"/>
-    <hyperlink ref="D18" r:id="rId13"/>
-    <hyperlink ref="F20" r:id="rId14"/>
-    <hyperlink ref="D21" r:id="rId15"/>
-    <hyperlink ref="D22" r:id="rId16"/>
-    <hyperlink ref="D24" r:id="rId17"/>
-    <hyperlink ref="D25" r:id="rId18"/>
-    <hyperlink ref="D26" r:id="rId19"/>
-    <hyperlink ref="D27" r:id="rId20"/>
-    <hyperlink ref="D28" r:id="rId21"/>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:ziette.hayes@hamptonu.edu"/>
+    <hyperlink ref="F3" r:id="rId2" display="mailto:joyce.shirazi@hamptonu.edu"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10" display="mailto:tafreem2@ncsu.edu"/>
+    <hyperlink ref="E16" r:id="rId11" display="mailto:cam.harvey@duke.edu"/>
+    <hyperlink ref="G17" r:id="rId12"/>
+    <hyperlink ref="E18" r:id="rId13"/>
+    <hyperlink ref="G20" r:id="rId14"/>
+    <hyperlink ref="E21" r:id="rId15"/>
+    <hyperlink ref="E22" r:id="rId16"/>
+    <hyperlink ref="E24" r:id="rId17"/>
+    <hyperlink ref="E25" r:id="rId18"/>
+    <hyperlink ref="E26" r:id="rId19"/>
+    <hyperlink ref="E27" r:id="rId20"/>
+    <hyperlink ref="E28" r:id="rId21"/>
+    <hyperlink ref="E29" r:id="rId22" display="mailto:jajohnson3@vcu.edu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" t="s">
+      <c r="C5" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="2" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F17" s="2" t="s">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="3" t="s">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2587,256 +2801,473 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="11" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D4" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D23" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3" display="mailto:awc-g@vt.edu"/>
+    <hyperlink ref="D7" r:id="rId4" display="mailto:gradinfo@cs.vt.edu?subject=Inquiry"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:csundergrad@cs.vt.edu?subject=Inquiry"/>
+    <hyperlink ref="D14" r:id="rId6" display="aktate@vt.edu"/>
+    <hyperlink ref="D20" r:id="rId7" display="mailto:khedge@vt.edu"/>
+    <hyperlink ref="D23" r:id="rId8"/>
+    <hyperlink ref="D37" r:id="rId9" display="mailto:bhusser@vt.edu"/>
+    <hyperlink ref="D21" r:id="rId10" display="mailto:tsutphin@vt.edu"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="J1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2845,581 +3276,585 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="2" customWidth="1"/>
-    <col min="8" max="12" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="30"/>
+    <col min="3" max="4" width="22.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="2" customWidth="1"/>
+    <col min="9" max="13" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="I1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>21</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5407316000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7043722442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5407316000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7043722442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="11" t="s">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="G21" s="3">
+        <v>3367582178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="F22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="L22" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="F23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="C25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="3">
-        <v>3367582178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="C26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F26" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="11" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="D32" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="F33" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="F35" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="2" t="s">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="F36" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="F38" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="C39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="F39" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="F40" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="L40" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E41" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="F43" s="12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>194</v>
+      <c r="L43" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E17" r:id="rId8"/>
-    <hyperlink ref="E18" r:id="rId9"/>
-    <hyperlink ref="E20" r:id="rId10" tooltip="Email Randy Walker" display="mailto:Walker.Randy@Gaston.edu"/>
-    <hyperlink ref="E21" r:id="rId11"/>
-    <hyperlink ref="E22" r:id="rId12" display="mailto:charlottetalks@wfae.org?subject=Charlotte%20Talks"/>
-    <hyperlink ref="E23" r:id="rId13"/>
-    <hyperlink ref="E26" r:id="rId14"/>
-    <hyperlink ref="E28" r:id="rId15"/>
-    <hyperlink ref="E29" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="E35" r:id="rId18"/>
-    <hyperlink ref="E36" r:id="rId19"/>
-    <hyperlink ref="E38" r:id="rId20"/>
-    <hyperlink ref="E39" r:id="rId21"/>
-    <hyperlink ref="E40" r:id="rId22" display="mailto:collegianstories@gmail.com"/>
-    <hyperlink ref="E43" r:id="rId23" display="mailto:promotions.wdce@richmond.edu"/>
+    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId3"/>
+    <hyperlink ref="F13" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F16" r:id="rId7"/>
+    <hyperlink ref="F17" r:id="rId8"/>
+    <hyperlink ref="F18" r:id="rId9"/>
+    <hyperlink ref="F20" r:id="rId10" tooltip="Email Randy Walker" display="mailto:Walker.Randy@Gaston.edu"/>
+    <hyperlink ref="F21" r:id="rId11"/>
+    <hyperlink ref="F22" r:id="rId12" display="mailto:charlottetalks@wfae.org?subject=Charlotte%20Talks"/>
+    <hyperlink ref="F23" r:id="rId13"/>
+    <hyperlink ref="F26" r:id="rId14"/>
+    <hyperlink ref="F28" r:id="rId15"/>
+    <hyperlink ref="F29" r:id="rId16"/>
+    <hyperlink ref="F30" r:id="rId17"/>
+    <hyperlink ref="F35" r:id="rId18"/>
+    <hyperlink ref="F36" r:id="rId19"/>
+    <hyperlink ref="F38" r:id="rId20"/>
+    <hyperlink ref="F39" r:id="rId21"/>
+    <hyperlink ref="F40" r:id="rId22" display="mailto:collegianstories@gmail.com"/>
+    <hyperlink ref="F43" r:id="rId23" display="mailto:promotions.wdce@richmond.edu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>
@@ -3428,61 +3863,65 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="J1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
